--- a/biology/Médecine/Syndrome_de_Hermansky-Pudlak/Syndrome_de_Hermansky-Pudlak.xlsx
+++ b/biology/Médecine/Syndrome_de_Hermansky-Pudlak/Syndrome_de_Hermansky-Pudlak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Hermansky-Pudlak est une maladie génétique très rare impliquant plusieurs organes du corps caractérisée par un albinisme, des troubles hémorragiques par trouble plaquettaire et dans quelques cas une fibrose pulmonaire et une colite membraneuse.
@@ -516,11 +528,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:203300 [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:608233 [2]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:203300 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:608233 
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
